--- a/results.xlsx
+++ b/results.xlsx
@@ -9,17 +9,33 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="pbeh3c homo_energy" sheetId="2" r:id="rId2"/>
+    <sheet name="pbeh3c lumo_energy" sheetId="3" r:id="rId3"/>
+    <sheet name="pbeh3c homo_lumo_gap" sheetId="4" r:id="rId4"/>
+    <sheet name="r2scan3c homo_energy" sheetId="5" r:id="rId5"/>
+    <sheet name="r2scan3c lumo_energy" sheetId="6" r:id="rId6"/>
+    <sheet name="r2scan3c homo_lumo_gap" sheetId="7" r:id="rId7"/>
+    <sheet name="b3lyp homo_energy" sheetId="8" r:id="rId8"/>
+    <sheet name="b3lyp lumo_energy" sheetId="9" r:id="rId9"/>
+    <sheet name="b3lyp homo_lumo_gap" sheetId="10" r:id="rId10"/>
+    <sheet name="pbe0 homo_energy" sheetId="11" r:id="rId11"/>
+    <sheet name="pbe0 lumo_energy" sheetId="12" r:id="rId12"/>
+    <sheet name="pbe0 homo_lumo_gap" sheetId="13" r:id="rId13"/>
+    <sheet name="pbe0 S1_energy" sheetId="14" r:id="rId14"/>
+    <sheet name="pbe0 T1_energy" sheetId="15" r:id="rId15"/>
+    <sheet name="pbe0 delta_E_ST" sheetId="16" r:id="rId16"/>
+    <sheet name="pbe0 T1_S1_SOCME" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -49,6 +65,54 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>HOMO energies, eV (PBEh-3c)</t>
+  </si>
+  <si>
+    <t>LUMO energies, eV (PBEh-3c)</t>
+  </si>
+  <si>
+    <t>HOMO-LUMO gaps, eV (PBEh-3c)</t>
+  </si>
+  <si>
+    <t>HOMO energies, eV (r2scan-3c)</t>
+  </si>
+  <si>
+    <t>LUMO energies, eV (r2scan-3c)</t>
+  </si>
+  <si>
+    <t>HOMO-LUMO gaps, eV (r2scan-3c)</t>
+  </si>
+  <si>
+    <t>HOMO energies, eV (B3LYP/def2-SVP)</t>
+  </si>
+  <si>
+    <t>LUMO energies, eV (B3LYP/def2-SVP)</t>
+  </si>
+  <si>
+    <t>HOMO-LUMO gaps, eV (B3LYP/def2-SVP)</t>
+  </si>
+  <si>
+    <t>HOMO energies, eV (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>LUMO energies, eV (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>HOMO-LUMO gaps, eV (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>S1 energies, eV (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>T1 energies, eV (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>ΔE(S1-T1), eV (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>Spin-Orbit Coupling Matrix Element for S1 and T1, cm-1 (PBE0/def2-TZVP, CPCM(toluene))</t>
   </si>
 </sst>
 </file>
@@ -82,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +163,42 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD7E1"/>
+        <bgColor rgb="FFFBD7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2F9DC"/>
+        <bgColor rgb="FFC2F9DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5EEFF"/>
+        <bgColor rgb="FFA5EEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DDAD9"/>
+        <bgColor rgb="FF7DDAD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEAAF"/>
+        <bgColor rgb="FFFCEAAF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7D7D7"/>
+        <bgColor rgb="FFD7D7D7"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,6 +270,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -636,6 +754,4964 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.6909000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.5897000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.3347000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.7347999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.6606999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.9087999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.9678</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.3837000000000002</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.8125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.9405000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.6827999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.4157999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.8605</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.6993</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.9276</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.9258999999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.415</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.736499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.577</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.3222999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.0400999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.4802</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.3734999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.6294</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.4430000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.7751000000000001</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.3542999999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.2608999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.983200000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.3986999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.3403999999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.5916000000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.6392000000000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.0507</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.4859</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.1312000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.0817999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.8113999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.226399999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.1564999999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.4089999999999998</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.4695999999999998</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.855</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.315199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.9093</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.8536000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5868000000000002</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.9927000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.9306999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.1764999999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.2444000000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.6484000000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.0968</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-6.0266000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-5.9641000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-6.0076999999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-5.9508999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-5.8346999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-5.8533999999999997</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-5.8472</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-5.8872</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-5.8117999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-5.9574999999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-5.8319999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-5.9053000000000004</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-5.8216999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-5.6689999999999996</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-5.6673</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-5.6928000000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-5.7571000000000003</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-5.6463000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-5.5587</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-5.4802999999999997</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-5.5267999999999997</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-5.4622999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-5.3391000000000002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-5.3590999999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-5.3552999999999997</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-5.4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-5.3136999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-5.6097000000000001</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-5.7152000000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-5.6725000000000003</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-5.7060000000000004</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-5.6573000000000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-5.5533999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-5.5755999999999997</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-5.56</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-5.5982000000000003</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-5.5263999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-5.5662000000000003</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-5.5335000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-5.5681000000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-5.5157999999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-5.4130000000000003</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-5.4406999999999996</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-5.4219999999999997</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-5.4568000000000003</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-5.3906999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-5.3636999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-5.3338000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-5.3535000000000004</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-5.2923</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-5.2092999999999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-5.226</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-5.1923000000000004</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-5.2263000000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-5.1703999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1.9063000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1.9774</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-2.2589999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1.7345999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1.7454000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-1.4883</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-2.4039999999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-2.1627000000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-2.5825999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.7388999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1.8653</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-2.1806999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1.6077999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1.6071</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-1.3884000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-2.3252999999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-2.0611999999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-2.5213999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1.7497</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1.8947000000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-2.1972999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1.6327</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1.6456999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-1.3837999999999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-2.3441999999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-2.0815999999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-2.5358000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1.6426000000000001</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1.8956999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1.9691000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-2.2526000000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1.7123999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.7354000000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1.4755</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2.3973</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-2.1541999999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-2.5758999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1.9406000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1.9898</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-2.2658</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1.7425999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1.7618</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-1.5085</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-2.411</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-2.1812999999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-2.5880999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1.9470000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-1.9974000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-2.2738999999999998</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-1.7519</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-1.7703</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1.5154000000000001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-2.4186000000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-2.1837</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-2.5939999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1203000000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.9866999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.7486999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.2163000000000004</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0892999999999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.3651</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.4432</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.7244999999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.2292000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.2185999999999986</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.9666999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.724600000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.2138999999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.0618999999999996</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.2789000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.3675000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.6959</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.1248999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.585599999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.3294999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.8296000000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.6934</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.9752999999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3.0110999999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.3184</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.7778999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.9670999999999998</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.819500000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.7033999999999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.4533999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.944900000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.8180000000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.1000999999999994</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.1627000000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.444</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.9504999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.6255999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.5436999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.3022999999999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.7732000000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.6511999999999998</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.9321999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.0110000000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.275500000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.8026</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.4167000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.3363999999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3.079600000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.5404</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.7105999999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.7736999999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.0426000000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.5764</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.572448649</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.5703805825999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.3828124023999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.7191453064000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.6231706986000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.8375421078</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.0751331026000002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.3001713806000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.8918099008000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.551278179800001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3.4752495282</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.3052054896</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.5809658172000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.5061344671999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.6091024048000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.9362733284</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.1966047922</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.7409226877999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.2312993271999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.1453929374</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.9447088624000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.3423762620000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.1991898752000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.4378338531999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.6319954536000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.8641631184</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.4294882148000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.3349203383999999</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.2240883062000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.3153009189999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.0899905269999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.3776694477999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.3933976370000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.5064065811999998</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.8048150550000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.0510510136</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.6169475493999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.0498809233999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.1618286229999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.9430217555999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.1994619892</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.235027289</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.3184030186000002</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.6570571529999998</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.9048713728000002</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.4715570391999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.8223936194000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.9470490427999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.7191263563999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.9619881013999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.0184517564000002</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.1022900797999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.4166444340000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.6580639748000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.2444506947999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.1798697811999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.1195148960000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.1550529844000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.1879515669999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.1093378324000009</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.1603592074</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.0597314502000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.0564660822</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.5737902689999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.9383413948000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.9191301464000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.9224771486000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.9305045116000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.9167083318000002</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.9275112576</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.9055244463999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.8726530752000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.5743889198000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.8873744426000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9334977655999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.8892248178000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.9520559404000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.9452803018</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.9945329358000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.6274239384000002</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.7708552277999998</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.4287807184000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.9043271447999999</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.1869447451999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.1406037310000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.089446299</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.2276529996000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.1271612994</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.1786452681999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.8047606321999998</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.0505884198</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.5740079601999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.9555117881999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3.0160027303999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.9411441690000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.011213524</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.0228872145999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.0294995847999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.6570299415999998</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2.9043271447999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.4715298278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.7630455559999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.8914833639999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.7179562661999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.8549928765999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.9259329963999998</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.9227492626</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.4165900111999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.6577646493999998</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.2444234833999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.39257886780000018</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.45086568659999982</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.2277594179999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.53119373939999992</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.51383286619999957</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.67718290040000051</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.5401652400000019E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.24370529839999969</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.31801963179999992</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.61293678500000048</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.55611938179999987</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.38272834100000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.65046130559999993</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.58942613539999966</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.68159114720000025</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.074888200000014E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.32395171699999992</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.16653376799999989</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.34392488460000031</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2118951718000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.5484044600000448E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.39032032160000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.25390957340000009</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.44330091740000022</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4.571515199999876E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>9.3307890599999777E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7.0749640000000724E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.43059319359999998</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.7143561000000158E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.17469718800000009</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.4422800000031302E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.15001644820000021</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.26623633760000009</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.32776131300000028</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.4422799999898068E-5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.6259380000002182E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.2939589200000412E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.4369135199999565E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14582589260000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.8775866000000361E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.18824846519999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.2121400744000006</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.28890343380000028</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.7211399999949041E-5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5.4422800000031302E-4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.7211399999949041E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.9348063399999873E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.5565678799999851E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.1700902000000291E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1069952248000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.2518760000000366E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.17954081719999951</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.4422800000342157E-5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.9932540000032759E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.721140000039313E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:U11 M13:M21 N13:U19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:U19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.7445626465380289E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.3484692283495343E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.16431676725154981</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.14730919862656239</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.14899664425751341</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.15588457268119901</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8.6023252670426265E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.12727922061357849</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.4476605857119878</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.4031242374328487E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.899494936611665E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1774823934929885</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.10049875621120891</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1135781669160055</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9.1104335791443003E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.2083266665599966</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.15588457268119901</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.81326502445389848</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.6953597148326576E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1367479433117734</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.2426406871192847E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.43011626335213132</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.1622776601683791E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.19748417658131501</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.36262928728937488</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.2426406871192847E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.21840329667841549</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.38183766184073559</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.21307275752662519</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.2437211521390788</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2.2360679774997901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.385164807134505E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.21213203435596431</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.7416573867739417E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.123105625617661E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.24124676163629641</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4.123105625617661E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.2801098892805186E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.216794833886788</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.2360679774997901E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.2462112512353219E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.29120439557122069</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.13190905958272919</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-6.7793000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-6.6962999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-6.7747999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-6.6637000000000004</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-6.4374000000000002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-6.4884000000000004</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-6.4549000000000003</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-6.5243000000000002</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-6.3874000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-6.6619999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-6.4993999999999996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-6.6482999999999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-6.4892000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-6.1539999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-6.1745000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-6.2129000000000003</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-6.3167</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-6.1222000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-6.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-6.1909999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-6.2988999999999997</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-6.1703999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-5.9012000000000002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-5.9497999999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-5.9377000000000004</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-6.0218999999999996</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-5.8604000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-6.3623000000000003</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-6.4386999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-6.3730000000000002</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-6.452</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-6.3451000000000004</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-6.1228999999999996</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-6.1699000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-6.1429</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-6.2111999999999998</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-6.0830000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-6.3893000000000004</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-6.3312999999999997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-6.4001000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-6.3059000000000003</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-6.0853999999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-6.14</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-6.0967000000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-6.1631</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-6.0339999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-6.0830000000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-6.0217000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-6.0932000000000004</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-5.9733000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-5.7744</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-5.8292000000000002</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-5.7712000000000003</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-5.8320999999999996</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-5.7133000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1.5489999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1.5582</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-1.8960999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1.3243</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1.2059</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-0.97850000000000004</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1.8091999999999999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-1.6218999999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-2.0722999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.2604</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1.3207</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-1.7294</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1.0851999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-0.94620000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-0.73260000000000003</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-1.6486000000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-1.4335</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-1.9449000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1.2156</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1.3592</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-1.7591000000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1.1176999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1.0022</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-0.75139999999999996</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-1.68</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-1.4618</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-1.9694</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1.0348999999999999</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-1.4926999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-1.5125</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-1.8804000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1.2976000000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.1698</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-0.9284</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-1.7903</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-1.6</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-2.0568</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-1.5683</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1.5456000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1.9000999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1.3427</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1.2062999999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-0.97099999999999997</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-1.8109999999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-1.6464000000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-2.0743</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1.5902000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-1.5677000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1.9209000000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-1.3687</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-1.2303999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.99109999999999998</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-1.8298000000000001</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-1.6512</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-2.0891000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.2302999999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.1380999999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.8787000000000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.3394000000000004</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5.2314999999999996</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5.5099</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.6457000000000006</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.9024000000000001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.315100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.4016000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.1786999999999992</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.9188999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5.2077999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5.4419000000000004</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.5643000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.8832000000000004</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.1773000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.0843999999999996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.8317999999999994</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.5397999999999996</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5.0526999999999997</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.899</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5.1983999999999986</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4.2577000000000007</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.5600999999999994</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3.891</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.3274000000000008</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.9459999999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.8605</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.5716000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.0475000000000003</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.9530999999999992</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.2415000000000003</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4.3525999999999998</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.6112000000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.0262000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.8210000000000006</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.7856999999999994</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.9632000000000014</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.8791000000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5.1689999999999996</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.2857000000000003</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.5167000000000002</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.9597000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.4927999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.4539999999999997</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.1722999999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.6045999999999996</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4.8380999999999998</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.9413999999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.1808999999999994</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3.6242000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-5.3673999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-5.2827999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-5.3738999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-5.2641999999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-5.0236999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-5.0633999999999997</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-5.0292000000000003</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-5.1105999999999998</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-4.9603999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-5.3070000000000004</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-5.1790000000000003</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-5.3110999999999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-5.1665999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-4.8628999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-4.8777999999999997</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-4.8712</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-4.9932999999999996</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-4.7911999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-4.9157999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-4.8220999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-4.9231999999999996</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-4.7996999999999996</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-4.5392999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-4.5793999999999997</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-4.5495999999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-4.6452999999999998</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-4.4782000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-4.9275000000000002</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-4.9939999999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-4.9287999999999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-5.0056000000000003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-4.9055</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-4.6870000000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-4.7236000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-4.6879</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-4.7606000000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-4.6254999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-4.8589000000000002</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-4.8021000000000003</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-4.8773</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-4.7750000000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-4.5598000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-4.5995999999999997</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-4.5590999999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-4.6291000000000002</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-4.4983000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-4.6828000000000003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-4.6100000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-4.6958000000000002</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-4.59</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-4.3643000000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-4.4042000000000003</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-4.3670999999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-4.4400000000000004</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-4.3064999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-2.7806999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-2.7787000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-3.2105999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-2.6217000000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-2.4701</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-2.1945000000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-3.2385000000000002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-2.8336999999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-3.3193999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-2.4401999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-2.5596999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-3.0446</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-2.3839999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-2.2231000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-1.9436</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-3.0771000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-2.6515</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-3.1840999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-2.4971999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-2.6172</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-3.0788000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-2.4445999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-2.2890999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-2.0095000000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-3.1158000000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-2.6861999999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-3.2124999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-2.3279999999999998</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-2.7753999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-2.7725</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-3.2078000000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-2.6126999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-2.4624999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-2.1844000000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-3.2334000000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-2.8254999999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-3.3085</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-2.8576999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-2.8151000000000002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-3.2374000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-2.6568999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-2.5108999999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-2.2414999999999998</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-3.2639999999999998</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-2.8748999999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-3.3372999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-2.8658999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-2.8273000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-3.2502</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-2.6686999999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-2.5230999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-2.2511999999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-3.2747000000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-2.8761999999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-3.347</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.5867</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.5041000000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.1633</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.6425000000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.5535999999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.8689</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.7907</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.2768999999999999</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.641</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.8668</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.6193</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.2665000000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.7826</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.6398000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.9342000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.7941</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.3418000000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.6071</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.4186000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.2048999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.8443999999999989</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.3551000000000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.2502</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.5699000000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.4338</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.9591000000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.2657</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.5994999999999999</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.2185999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.1562999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.7978000000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.2928000000000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.2244999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.5392000000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.4544999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.9351</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.3169999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.0011999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.6398999999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.118100000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.0489000000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.3580999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.2950999999999999</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.7542</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.8169</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.7827</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.4456</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.9213</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.8411999999999999</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.153</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.0924</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.563800000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.9594999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-5.7615999999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-5.6864999999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-5.7672999999999996</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-5.6669</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-5.4390999999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-5.4874999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-5.4307999999999996</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-5.5205000000000002</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-5.3924000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-5.6832000000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-5.5472000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-5.6792999999999996</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-5.5396000000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-5.2243000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-5.2417999999999996</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-5.2262000000000004</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-5.3635999999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-5.1841999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-5.3337000000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-5.2392000000000003</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-5.3365999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-5.2210999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-4.9630000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-5.0096999999999996</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-4.9653999999999998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-5.07</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-4.9231999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-5.3696000000000002</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-5.3936000000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-5.3327</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-5.4038000000000004</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-5.3087999999999997</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-5.0952999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-5.1432000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-5.09</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-5.1726999999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-5.0533999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-5.2355999999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-5.1832000000000003</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-5.2503000000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-5.1632999999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-4.9443000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-4.9988999999999999</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-4.9377000000000004</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-5.0159000000000002</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-4.8983999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-5.0399000000000003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-4.9787999999999997</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-5.0484999999999998</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-4.9560000000000004</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-4.7426000000000004</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-4.7911999999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-4.7347999999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-4.8185000000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-4.6967999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-2.0707</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-2.0968</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-2.4325999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-1.9320999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-1.7784</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-1.5787</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-2.4630000000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-2.1368</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-2.5798999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-1.7426999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1.8644000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-2.2635000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-1.6791</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-1.5249999999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-1.3142</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-2.3003</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-1.9486000000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-2.4477000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-1.7566999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1.9169</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-2.2965</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-1.7408999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-1.5894999999999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-1.3803000000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-2.3384</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-1.99</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-2.4802</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-1.5945</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-2.0392999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-2.0718000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-2.4205999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1.9100999999999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-1.7548999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1.5516000000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2.4508000000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-2.1219999999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-2.5674999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-2.1044</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-2.1013999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-2.4388999999999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1.9369000000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-1.7878000000000001</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-1.5899000000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-2.4681000000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-2.1608999999999998</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-2.5832000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-2.1305999999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-2.1252</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-2.4617</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-1.9633</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-1.8119000000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1.6147</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-2.4904000000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>-2.1701000000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-2.6</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">

--- a/results.xlsx
+++ b/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="846" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,16 @@
     <sheet name="pbe0 homo_lumo_gap" sheetId="13" r:id="rId13"/>
     <sheet name="pbe0 S1_energy" sheetId="14" r:id="rId14"/>
     <sheet name="pbe0 T1_energy" sheetId="15" r:id="rId15"/>
-    <sheet name="pbe0 delta_E_ST" sheetId="16" r:id="rId16"/>
+    <sheet name="pbe0 delta_E_S1_T1" sheetId="16" r:id="rId16"/>
     <sheet name="pbe0 T1_S1_SOCME" sheetId="17" r:id="rId17"/>
+    <sheet name="pbe0 T1_S2_SOCME" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="27">
   <si>
     <t>Title</t>
   </si>
@@ -114,11 +115,17 @@
   <si>
     <t>Spin-Orbit Coupling Matrix Element for S1 and T1, cm-1 (PBE0/def2-TZVP, CPCM(toluene))</t>
   </si>
+  <si>
+    <t>Spin-Orbit Coupling between T1 and S2, cm-1 (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +272,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,6 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,7 +608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -602,18 +618,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -792,7 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -800,18 +818,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -859,31 +877,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>3.6909000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.5897000000000001</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.3347000000000002</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="6">
+        <v>3.6991999999999989</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3.5960999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.3344</v>
+      </c>
+      <c r="F5" s="6">
         <v>3.7347999999999999</v>
       </c>
-      <c r="G5" s="3">
-        <v>3.6606999999999998</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3.9087999999999998</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="6">
+        <v>3.6604999999999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.9081000000000001</v>
+      </c>
+      <c r="I5" s="6">
         <v>2.9678</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>3.3837000000000002</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>2.8125</v>
       </c>
     </row>
@@ -891,31 +909,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>3.9405000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.6827999999999999</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="6">
+        <v>3.9415</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.6840999999999999</v>
+      </c>
+      <c r="E6" s="6">
         <v>3.4157999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>3.8605</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>3.6993</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>3.9276</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>2.9258999999999999</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>3.415</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>2.736499999999999</v>
       </c>
     </row>
@@ -923,31 +941,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>3.577</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>3.3222999999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>3.0400999999999998</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>3.4802</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>3.3734999999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>3.6294</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>2.6269999999999998</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>3.08</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>2.4430000000000001</v>
       </c>
     </row>
@@ -955,47 +973,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>3.7751000000000001</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>3.4232999999999998</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.1396000000000011</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.5705</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.4536000000000011</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3.7141000000000002</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.6560000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3.1680999999999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.4632000000000009</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>3.3542999999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>3.2608999999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>2.983200000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>3.3986999999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>3.3403999999999998</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>3.5916000000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>2.6392000000000002</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>3.0507</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>2.4859</v>
       </c>
     </row>
@@ -1003,31 +1037,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>3.1312000000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>3.0817999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>2.8113999999999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>3.226399999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>3.1564999999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>3.4089999999999998</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>2.4695999999999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>2.855</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>2.315199999999999</v>
       </c>
     </row>
@@ -1035,31 +1069,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>2.9093</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>2.8536000000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>2.5868000000000002</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>2.9927000000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>2.9306999999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>3.1764999999999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>2.2444000000000002</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>2.6484000000000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>2.0968</v>
       </c>
     </row>
@@ -1067,15 +1101,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>4.1002999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.8058000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.5226999999999991</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.944</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3.8348</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.0655000000000001</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.1162999999999998</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3.5619000000000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2.9901</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1098,10 +1150,396 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-6.0266000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-5.9641000000000002</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-6.0076999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-5.9508999999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-5.8346999999999998</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-5.8533999999999997</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-5.8472</v>
+      </c>
+      <c r="J5" s="6">
+        <v>-5.8872</v>
+      </c>
+      <c r="K5" s="6">
+        <v>-5.8117999999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M12" si="0">MAX(C5:K5)-MIN(C5:K5)</f>
+        <v>0.21480000000000032</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-5.9574999999999996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-5.8319999999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-5.9053000000000004</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-5.8216999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-5.6689999999999996</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-5.6673</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-5.6928000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-5.7571000000000003</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-5.6463000000000001</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.31119999999999948</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-5.5587</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-5.4802999999999997</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-5.5267999999999997</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-5.4622999999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-5.3391000000000002</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-5.3590999999999998</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-5.3552999999999997</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-5.4</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-5.3136999999999999</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.24500000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-5.6097000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-5.4954000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-5.5697000000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-5.4858000000000002</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-5.3335999999999997</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-5.3418999999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-5.3525999999999998</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-5.4890999999999996</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-5.3070000000000004</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.30269999999999975</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-5.7152000000000003</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-5.6725000000000003</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-5.7060000000000004</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-5.6573000000000002</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-5.5533999999999999</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-5.5755999999999997</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-5.56</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-5.5982000000000003</v>
+      </c>
+      <c r="K9" s="6">
+        <v>-5.5263999999999998</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.18880000000000052</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-5.5662000000000003</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-5.5335000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-5.5681000000000003</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-5.5157999999999996</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-5.4130000000000003</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-5.4406999999999996</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-5.4219999999999997</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-5.4568000000000003</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-5.3906999999999998</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0.17740000000000045</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-5.3636999999999997</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-5.3338000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-5.3535000000000004</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-5.2923</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-5.2092999999999998</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-5.226</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-5.1923000000000004</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-5.2263000000000002</v>
+      </c>
+      <c r="K11" s="6">
+        <v>-5.1703999999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.19329999999999981</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-6.1687000000000003</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-6.0815000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-6.0937000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-6.0416999999999996</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-5.9569999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-5.9702999999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-5.9695</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-6.0223000000000004</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-5.9786000000000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0.21170000000000044</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,18 +1548,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -1169,230 +1607,302 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>-6.0266000000000002</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-5.9641000000000002</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-6.0076999999999998</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-5.9508999999999999</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-5.8346999999999998</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-5.8533999999999997</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-5.8472</v>
-      </c>
-      <c r="J5" s="3">
-        <v>-5.8872</v>
-      </c>
-      <c r="K5" s="3">
-        <v>-5.8117999999999999</v>
+      <c r="C5" s="6">
+        <v>-1.9063000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-1.9774</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-2.2589999999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-1.7345999999999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-1.7454000000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-1.4883</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-2.4039999999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <v>-2.1627000000000001</v>
+      </c>
+      <c r="K5" s="6">
+        <v>-2.5825999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>-5.9574999999999996</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-5.8319999999999999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-5.9053000000000004</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-5.8216999999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-5.6689999999999996</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-5.6673</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-5.6928000000000001</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-5.7571000000000003</v>
-      </c>
-      <c r="K6" s="3">
-        <v>-5.6463000000000001</v>
+      <c r="C6" s="6">
+        <v>-1.7388999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1.8653</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-2.1806999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-1.6077999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1.6071</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-1.3884000000000001</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-2.3252999999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-2.0611999999999999</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-2.5213999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>-5.5587</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-5.4802999999999997</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-5.5267999999999997</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-5.4622999999999999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-5.3391000000000002</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-5.3590999999999998</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-5.3552999999999997</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-5.4</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-5.3136999999999999</v>
+      <c r="C7" s="6">
+        <v>-1.7497</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-1.8947000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-2.1972999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-1.6327</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-1.6456999999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-1.3837999999999999</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-2.3441999999999998</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-2.0815999999999999</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-2.5358000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <v>-5.6097000000000001</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="C8" s="6">
+        <v>-1.6426000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-1.8440000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-2.1648999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-1.5787</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-1.5758000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1.3023</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-2.3128000000000002</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-2.0617999999999999</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-2.5114000000000001</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
-        <v>-5.7152000000000003</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-5.6725000000000003</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-5.7060000000000004</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-5.6573000000000002</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-5.5533999999999999</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-5.5755999999999997</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-5.56</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-5.5982000000000003</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-5.5263999999999998</v>
+      <c r="C9" s="6">
+        <v>-1.8956999999999999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1.9691000000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-2.2526000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-1.7123999999999999</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-1.7354000000000001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-1.4755</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-2.3973</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-2.1541999999999999</v>
+      </c>
+      <c r="K9" s="6">
+        <v>-2.5758999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
-        <v>-5.5662000000000003</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-5.5335000000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-5.5681000000000003</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-5.5157999999999996</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-5.4130000000000003</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-5.4406999999999996</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-5.4219999999999997</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-5.4568000000000003</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-5.3906999999999998</v>
+      <c r="C10" s="6">
+        <v>-1.9406000000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-1.9898</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-2.2658</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-1.7425999999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1.7618</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-1.5085</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-2.411</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-2.1812999999999998</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-2.5880999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <v>-5.3636999999999997</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-5.3338000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-5.3535000000000004</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-5.2923</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-5.2092999999999998</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-5.226</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-5.1923000000000004</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-5.2263000000000002</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-5.1703999999999999</v>
+      <c r="C11" s="6">
+        <v>-1.9470000000000001</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-1.9974000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-2.2738999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-1.7519</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-1.7703</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-1.5154000000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-2.4186000000000001</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-2.1837</v>
+      </c>
+      <c r="K11" s="6">
+        <v>-2.5939999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>-1.8006</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-1.9426000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-2.2244000000000002</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-1.6896</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-1.714</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-1.4644999999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-2.3805999999999998</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-2.1356999999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-2.5684</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="16">
+        <f>-MIN(C5:C12)+MAX(C5:C12)</f>
+        <v>0.3044</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15:K15" si="0">-MIN(D5:D12)+MAX(D5:D12)</f>
+        <v>0.15339999999999998</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.10899999999999999</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.17320000000000002</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.1944999999999999</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.21310000000000007</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.10579999999999989</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12250000000000005</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="0"/>
+        <v>8.2599999999999785E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:K12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1401,313 +1911,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="11" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-1.9063000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.9774</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-2.2589999999999999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-1.7345999999999999</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-1.7454000000000001</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-1.4883</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-2.4039999999999999</v>
-      </c>
-      <c r="J5" s="3">
-        <v>-2.1627000000000001</v>
-      </c>
-      <c r="K5" s="3">
-        <v>-2.5825999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>-1.7388999999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1.8653</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-2.1806999999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-1.6077999999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>-1.6071</v>
-      </c>
-      <c r="H6" s="3">
-        <v>-1.3884000000000001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>-2.3252999999999999</v>
-      </c>
-      <c r="J6" s="3">
-        <v>-2.0611999999999999</v>
-      </c>
-      <c r="K6" s="3">
-        <v>-2.5213999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-1.7497</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1.8947000000000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-2.1972999999999998</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-1.6327</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-1.6456999999999999</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-1.3837999999999999</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-2.3441999999999998</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-2.0815999999999999</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-2.5358000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-1.6426000000000001</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-1.8956999999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1.9691000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>-2.2526000000000002</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-1.7123999999999999</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-1.7354000000000001</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1.4755</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-2.3973</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-2.1541999999999999</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-2.5758999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-1.9406000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1.9898</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-2.2658</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-1.7425999999999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-1.7618</v>
-      </c>
-      <c r="H10" s="3">
-        <v>-1.5085</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-2.411</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-2.1812999999999998</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-2.5880999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-1.9470000000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-1.9974000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-2.2738999999999998</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-1.7519</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-1.7703</v>
-      </c>
-      <c r="H11" s="3">
-        <v>-1.5154000000000001</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-2.4186000000000001</v>
-      </c>
-      <c r="J11" s="3">
-        <v>-2.1837</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-2.5939999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:K2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C5:K12">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C15:K15">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1721,7 +1931,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,18 +1940,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -1789,31 +1999,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>4.1203000000000003</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>3.9866999999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>3.7486999999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>4.2163000000000004</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>4.0892999999999997</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>4.3651</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>3.4432</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>3.7244999999999999</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>3.2292000000000001</v>
       </c>
     </row>
@@ -1821,31 +2031,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>4.2185999999999986</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>3.9666999999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>3.724600000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>4.2138999999999998</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>4.0618999999999996</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>4.2789000000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>3.3675000000000002</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>3.6959</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>3.1248999999999998</v>
       </c>
     </row>
@@ -1853,31 +2063,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>3.8090000000000002</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>3.585599999999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>3.3294999999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>3.8296000000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>3.6934</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>3.9752999999999998</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>3.0110999999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>3.3184</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>2.7778999999999998</v>
       </c>
     </row>
@@ -1885,47 +2095,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>3.9670999999999998</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>3.6514000000000002</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.4047999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.9070999999999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.7578</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.0396000000000001</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.0398000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>3.4272999999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.7955999999999999</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>3.819500000000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>3.7033999999999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>3.4533999999999998</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>3.944900000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>3.8180000000000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>4.1000999999999994</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>3.1627000000000001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>3.444</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>2.9504999999999999</v>
       </c>
     </row>
@@ -1933,31 +2159,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>3.6255999999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>3.5436999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>3.3022999999999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>3.7732000000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>3.6511999999999998</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>3.9321999999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>3.0110000000000001</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>3.275500000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>2.8026</v>
       </c>
     </row>
@@ -1965,31 +2191,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>3.4167000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>3.3363999999999998</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>3.079600000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>3.5404</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>3.4390000000000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>3.7105999999999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>2.7736999999999998</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>3.0426000000000002</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>2.5764</v>
       </c>
     </row>
@@ -1997,21 +2223,69 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>4.3681000000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4.1388999999999996</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.8693</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4.3521000000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.2430000000000003</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.5057999999999998</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.5889000000000002</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3.8866000000000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3.4102000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:K14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:W11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2038,18 +2312,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -2097,31 +2371,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>3.572448649</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>3.5703805825999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>3.3828124023999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>3.7191453064000002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>3.6231706986000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>3.8375421078</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>3.0751331026000002</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>3.3001713806000001</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>2.8918099008000002</v>
       </c>
     </row>
@@ -2129,31 +2403,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>3.551278179800001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>3.4752495282</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>3.3052054896</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>3.5809658172000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>3.5061344671999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>3.6091024048000002</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>2.9362733284</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>3.1966047922</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>2.7409226877999999</v>
       </c>
     </row>
@@ -2161,31 +2435,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>3.2312993271999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>3.1453929374</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>2.9447088624000002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>3.3423762620000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>3.1991898752000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>3.4378338531999999</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>2.6319954536000001</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>2.8641631184</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>2.4294882148000001</v>
       </c>
     </row>
@@ -2193,47 +2467,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>3.3349203383999999</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>3.1732301995999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.99461457</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.3806627017999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.2154895038000002</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3.4831136227999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.630389981</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2.9523824772</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.4228214218000002</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>3.2240883062000001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>3.3153009189999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>3.0899905269999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>3.3776694477999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>3.3933976370000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>3.5064065811999998</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>2.8048150550000002</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>3.0510510136</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>2.6169475493999999</v>
       </c>
     </row>
@@ -2241,31 +2531,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>3.0498809233999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>3.1618286229999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>2.9430217555999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>3.1994619892</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>3.235027289</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>3.3184030186000002</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>2.6570571529999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>2.9048713728000002</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>2.4715570391999999</v>
       </c>
     </row>
@@ -2273,31 +2563,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>2.8223936194000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>2.9470490427999998</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>2.7191263563999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>2.9619881013999998</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>3.0184517564000002</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>3.1022900797999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>2.4166444340000002</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>2.6580639748000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>2.2444506947999998</v>
       </c>
     </row>
@@ -2305,15 +2595,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>3.7356082034</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.6619197321999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.4385141382</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.8082354299999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3.7126962045999998</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.9170266072</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.1694478149999998</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3.4101326479999998</v>
+      </c>
+      <c r="K12" s="6">
+        <v>3.0362480120000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2338,7 +2646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2346,18 +2656,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -2405,31 +2715,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>3.1798697811999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>3.1195148960000001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>3.1550529844000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>3.1879515669999998</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>3.1093378324000009</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>3.1603592074</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>3.0597314502000001</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>3.0564660822</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>2.5737902689999999</v>
       </c>
     </row>
@@ -2437,31 +2747,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>2.9383413948000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>2.9191301464000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>2.9224771486000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>2.9305045116000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>2.9167083318000002</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>2.9275112576</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>2.9055244463999998</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>2.8726530752000001</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>2.5743889198000001</v>
       </c>
     </row>
@@ -2469,31 +2779,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>2.8873744426000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>2.9334977655999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>2.8892248178000002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>2.9520559404000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>2.9452803018</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>2.9945329358000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>2.6274239384000002</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>2.7708552277999998</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>2.4287807184000001</v>
       </c>
     </row>
@@ -2501,47 +2811,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>2.9043271447999999</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>2.9137967119999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.8857961813999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.9421509908000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.9082727978</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.9695528705999998</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.6208659910000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2.7992095066</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.4213247947999998</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>3.1869447451999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>3.1406037310000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>3.089446299</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>3.2276529996000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>3.1271612994</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>3.1786452681999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>2.8047606321999998</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>3.0505884198</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>2.5740079601999999</v>
       </c>
     </row>
@@ -2549,31 +2875,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>2.9555117881999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>3.0160027303999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>2.9411441690000002</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>3.011213524</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>3.0228872145999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>3.0294995847999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>2.6570299415999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>2.9043271447999999</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>2.4715298278</v>
       </c>
     </row>
@@ -2581,31 +2907,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>2.7630455559999998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>2.8914833639999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>2.7179562661999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>2.8549928765999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>2.9259329963999998</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>2.9227492626</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>2.4165900111999998</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>2.6577646493999998</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>2.2444234833999999</v>
       </c>
     </row>
@@ -2613,15 +2939,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>3.1244945822000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.0741807036000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3.086861216</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.1179094234</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3.0720037915999998</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.1110249392</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.1204945064</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3.0272682500000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2.5738446918000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2646,7 +2990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2654,18 +3000,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -2812,14 +3158,30 @@
       <c r="C8" s="3">
         <v>0.43059319359999998</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="3">
+        <v>0.25943348760000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.10881838859999959</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.43851171099999992</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.30721670599999967</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.51356075220000008</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9.5239899999999267E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.15317297060000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.496626999999862E-3</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -2921,22 +3283,40 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="3">
+        <v>0.6111136211999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.58773902859999971</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.35165292220000038</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.69032600659999988</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.64069241300000046</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.80600166799999995</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.8953308599999801E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.38286439799999972</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.46240332020000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:K12">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2945,7 +3325,341 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:U11 M13:M21 N13:U19">
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.7445626465380289E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.3484692283495343E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.16431676725154981</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.14730919862656239</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.14899664425751341</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.15588457268119901</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8.6023252670426265E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.12727922061357849</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.4476605857119878</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.4031242374328487E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.899494936611665E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.1774823934929885</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.10049875621120891</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.1135781669160055</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9.1104335791443003E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.2083266665599966</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.15588457268119901</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.81326502445389848</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.6953597148326576E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.1367479433117734</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.2426406871192847E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.43011626335213132</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.1622776601683791E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.19748417658131501</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.36262928728937488</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.7177978870813466E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.2004993765576342</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.16792855623746669</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.12688577540449519</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.26400757564888172</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5.9160797830996162E-2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.10677078252031311</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4.123105625617661E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.2426406871192847E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.21840329667841549</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.38183766184073559</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.21307275752662519</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.2437211521390788</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.2360679774997901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.385164807134505E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.21213203435596431</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.7416573867739417E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4.123105625617661E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.24124676163629641</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.123105625617661E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7.2801098892805186E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.216794833886788</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.2360679774997901E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8.2462112512353219E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.29120439557122069</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.13190905958272919</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.92493242996448122</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1.089082182390291</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.32155870381627061</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.5417198189035519</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.1636580253665589</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.872404870747777</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.29748949561287041</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1.0658799181896621</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2955,7 +3669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:U19">
+  <conditionalFormatting sqref="C5:K12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2970,12 +3684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,18 +3698,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3043,175 +3757,191 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>5.7445626465380289E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7.3484692283495343E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.16431676725154981</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.14730919862656239</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.14899664425751341</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.15588457268119901</v>
-      </c>
-      <c r="I5" s="3">
-        <v>8.6023252670426265E-2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.12727922061357849</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.4476605857119878</v>
+      <c r="C5" s="5">
+        <v>0.63316664473106921</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.43139309220245969</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.16583123951777001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.53944415837044712</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.5652433104425032</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.45376205218153709</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.54525223520862343</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>6.4031242374328487E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9.899494936611665E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.1774823934929885</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.10049875621120891</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.1135781669160055</v>
-      </c>
-      <c r="H6" s="3">
-        <v>9.1104335791443003E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.2083266665599966</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.15588457268119901</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.81326502445389848</v>
+      <c r="C6" s="5">
+        <v>0.15297058540778349</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.232163735324878</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.22494443758403981</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6.1644140029689758E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.1367479433117734</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.12569805089976541</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>9.6953597148326576E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.1367479433117734</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.2426406871192847E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.43011626335213132</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3.1622776601683791E-2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.19748417658131501</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.02</v>
+      <c r="C7" s="5">
+        <v>0.53347914673396557</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.54744862772683978</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.28583211855912899</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.35594943461115369</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.7058328414008519</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.45398237851264672</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.66558245169174945</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.36262928728937488</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="C8" s="5">
+        <v>0.67230945255886454</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.5487257967327579</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.2215851980616034</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.59110066824526597</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.744983221287567</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.68454364360499331</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.63079315151640636</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
-        <v>4.2426406871192847E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.21840329667841549</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.4142135623730951E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.38183766184073559</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.21307275752662519</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.2437211521390788</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
+      <c r="D9" s="5">
+        <v>0.1606237840420901</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.13964240043768941</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.21610182784974311</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.26419689627245813</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <v>0.01</v>
       </c>
-      <c r="K9" s="3">
-        <v>2.2360679774997901E-2</v>
+      <c r="K9" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
-        <v>5.385164807134505E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.21213203435596431</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.7416573867739417E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4.123105625617661E-2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.24124676163629641</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4.123105625617661E-2</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="3">
-        <v>1.4142135623730951E-2</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="D10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3219,31 +3949,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <v>7.2801098892805186E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.216794833886788</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.2360679774997901E-2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>8.2462112512353219E-2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.29120439557122069</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.13190905958272919</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3251,21 +3981,39 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="5">
+        <v>1.1156164215356461</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.92493242996448133</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.1667333200053307</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.0715453169071631</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1.259880946756478</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2.3482333785209679</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.4142135623730951E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.93514704726048303</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.8686195945291586</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:K11">
+  <conditionalFormatting sqref="C5:K12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3284,7 +4032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3292,18 +4042,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3351,31 +4101,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>-6.7793000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-6.6962999999999999</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="6">
+        <v>-6.7728000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-6.6862000000000004</v>
+      </c>
+      <c r="E5" s="6">
         <v>-6.7747999999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>-6.6637000000000004</v>
       </c>
-      <c r="G5" s="3">
-        <v>-6.4374000000000002</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-6.4884000000000004</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="6">
+        <v>-6.4249999999999998</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-6.476</v>
+      </c>
+      <c r="I5" s="6">
         <v>-6.4549000000000003</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-6.5243000000000002</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-6.3874000000000004</v>
       </c>
     </row>
@@ -3383,31 +4133,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>-6.6619999999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-6.4993999999999996</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="6">
+        <v>-6.6599000000000004</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-6.4983000000000004</v>
+      </c>
+      <c r="E6" s="6">
         <v>-6.6482999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>-6.4892000000000003</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>-6.1539999999999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>-6.1745000000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-6.2129000000000003</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>-6.3167</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>-6.1222000000000003</v>
       </c>
     </row>
@@ -3415,31 +4165,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-6.3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-6.1909999999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>-6.2988999999999997</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-6.1703999999999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-5.9012000000000002</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>-5.9497999999999998</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>-5.9377000000000004</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>-6.0218999999999996</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-5.8604000000000003</v>
       </c>
     </row>
@@ -3447,47 +4197,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-6.3623000000000003</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>-6.2187000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-6.3625999999999996</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-6.2035</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-5.8804999999999996</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-5.92</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-5.9322999999999997</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-6.1493000000000002</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-5.8502999999999998</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>-6.4386999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-6.3730000000000002</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>-6.452</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-6.3451000000000004</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-6.1228999999999996</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>-6.1699000000000002</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-6.1429</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-6.2111999999999998</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>-6.0830000000000002</v>
       </c>
     </row>
@@ -3495,31 +4261,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>-6.3893000000000004</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>-6.3312999999999997</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>-6.4001000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-6.3059000000000003</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>-6.0853999999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>-6.14</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-6.0967000000000002</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>-6.1631</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>-6.0339999999999998</v>
       </c>
     </row>
@@ -3527,31 +4293,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>-6.0830000000000002</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>-6.0217000000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>-6.0932000000000004</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>-5.9733000000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>-5.7744</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>-5.8292000000000002</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>-5.7712000000000003</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>-5.8320999999999996</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>-5.7133000000000003</v>
       </c>
     </row>
@@ -3559,15 +4325,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>-6.9831000000000003</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-6.8487</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-6.9531000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-6.7953000000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-6.5350000000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-6.5597000000000003</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-6.6296999999999997</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-6.6805000000000003</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-6.5979000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3592,7 +4376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3600,18 +4386,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3659,31 +4445,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>-1.5489999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-1.5582</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="6">
+        <v>-1.5322</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-1.5359</v>
+      </c>
+      <c r="E5" s="6">
         <v>-1.8960999999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>-1.3243</v>
       </c>
-      <c r="G5" s="3">
-        <v>-1.2059</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-0.97850000000000004</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="6">
+        <v>-1.1971000000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-0.96499999999999997</v>
+      </c>
+      <c r="I5" s="6">
         <v>-1.8091999999999999</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-1.6218999999999999</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-2.0722999999999998</v>
       </c>
     </row>
@@ -3691,31 +4477,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>-1.2604</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1.3207</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="6">
+        <v>-1.2588999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1.3056000000000001</v>
+      </c>
+      <c r="E6" s="6">
         <v>-1.7294</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>-1.0851999999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>-0.94620000000000004</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>-0.73260000000000003</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-1.6486000000000001</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>-1.4335</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>-1.9449000000000001</v>
       </c>
     </row>
@@ -3723,31 +4509,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-1.2156</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-1.3592</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>-1.7591000000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-1.1176999999999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-1.0022</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>-0.75139999999999996</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>-1.68</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>-1.4618</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-1.9694</v>
       </c>
     </row>
@@ -3755,47 +4541,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-1.0348999999999999</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>-1.2721</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-1.7023999999999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-1.0351999999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-0.8881</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-0.6169</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-1.6235999999999999</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-1.4413</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-1.9233</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>-1.4926999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-1.5125</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>-1.8804000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-1.2976000000000001</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-1.1698</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>-0.9284</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-1.7903</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-1.6</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>-2.0568</v>
       </c>
     </row>
@@ -3803,31 +4605,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>-1.5683</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>-1.5456000000000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>-1.9000999999999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-1.3427</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>-1.2062999999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>-0.97099999999999997</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-1.8109999999999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>-1.6464000000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>-2.0743</v>
       </c>
     </row>
@@ -3835,31 +4637,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>-1.5902000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>-1.5677000000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>-1.9209000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>-1.3687</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>-1.2303999999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>-0.99109999999999998</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>-1.8298000000000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>-1.6512</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>-2.0891000000000002</v>
       </c>
     </row>
@@ -3867,15 +4669,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>-1.2959000000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-1.4329000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-1.823</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-1.1879999999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-1.0974999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-0.85489999999999999</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-1.7546999999999999</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-1.544</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-2.0358999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3901,7 +4721,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,18 +4730,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3969,31 +4789,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>5.2302999999999997</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5.1380999999999997</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="6">
+        <v>5.2406000000000006</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.1503000000000014</v>
+      </c>
+      <c r="E5" s="6">
         <v>4.8787000000000003</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>5.3394000000000004</v>
       </c>
-      <c r="G5" s="3">
-        <v>5.2314999999999996</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5.5099</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="6">
+        <v>5.2279</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5.5110000000000001</v>
+      </c>
+      <c r="I5" s="6">
         <v>4.6457000000000006</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>4.9024000000000001</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>4.315100000000001</v>
       </c>
     </row>
@@ -4001,31 +4821,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>5.4016000000000002</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5.1786999999999992</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="6">
+        <v>5.4010000000000007</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.1927000000000003</v>
+      </c>
+      <c r="E6" s="6">
         <v>4.9188999999999998</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>5.4039999999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>5.2077999999999998</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>5.4419000000000004</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>4.5643000000000002</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>4.8832000000000004</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>4.1773000000000007</v>
       </c>
     </row>
@@ -4033,31 +4853,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>5.0843999999999996</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>4.8317999999999994</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>4.5397999999999996</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>5.0526999999999997</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>4.899</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>5.1983999999999986</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>4.2577000000000007</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>4.5600999999999994</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>3.891</v>
       </c>
     </row>
@@ -4065,47 +4885,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>5.3274000000000008</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>4.9466000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.6601999999999997</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5.1683000000000003</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4.9923999999999999</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5.3030999999999997</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4.3087</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3.927</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>4.9459999999999997</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>4.8605</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>4.5716000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>5.0475000000000003</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>4.9530999999999992</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>5.2415000000000003</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>4.3525999999999998</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>4.6112000000000002</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>4.0262000000000002</v>
       </c>
     </row>
@@ -4113,31 +4949,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>4.8210000000000006</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>4.7856999999999994</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>4.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>4.9632000000000014</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>4.8791000000000002</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>5.1689999999999996</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>4.2857000000000003</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>4.5167000000000002</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>3.9597000000000002</v>
       </c>
     </row>
@@ -4145,31 +4981,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>4.4927999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>4.4539999999999997</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>4.1722999999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>4.6045999999999996</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>4.5439999999999996</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>4.8380999999999998</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>3.9413999999999998</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>4.1808999999999994</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>3.6242000000000001</v>
       </c>
     </row>
@@ -4177,15 +5013,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>5.6872000000000007</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.4157999999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5.1301000000000014</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5.6073000000000004</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5.4375</v>
+      </c>
+      <c r="H12" s="6">
+        <v>5.7048000000000014</v>
+      </c>
+      <c r="I12" s="6">
+        <v>4.875</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5.1364999999999998</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4.5620000000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4210,7 +5064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4218,18 +5074,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -4277,31 +5133,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>-5.3673999999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>-5.2827999999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>-5.3738999999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>-5.2641999999999998</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>-5.0236999999999998</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>-5.0633999999999997</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>-5.0292000000000003</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-5.1105999999999998</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-4.9603999999999999</v>
       </c>
     </row>
@@ -4309,31 +5165,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>-5.3070000000000004</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>-5.1790000000000003</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>-5.3110999999999997</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>-5.1665999999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>-4.8628999999999998</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>-4.8777999999999997</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-4.8712</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>-4.9932999999999996</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>-4.7911999999999999</v>
       </c>
     </row>
@@ -4341,31 +5197,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-4.9157999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-4.8220999999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>-4.9231999999999996</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-4.7996999999999996</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-4.5392999999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>-4.5793999999999997</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>-4.5495999999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>-4.6452999999999998</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-4.4782000000000002</v>
       </c>
     </row>
@@ -4373,47 +5229,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-4.9275000000000002</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>-4.8112000000000004</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-4.9470999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-4.8007</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-4.4957000000000003</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-4.5274999999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-4.5056000000000003</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-4.6300999999999997</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-4.4326999999999996</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>-4.9939999999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-4.9287999999999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>-5.0056000000000003</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-4.9055</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-4.6870000000000003</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>-4.7236000000000002</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-4.6879</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-4.7606000000000002</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>-4.6254999999999997</v>
       </c>
     </row>
@@ -4421,31 +5293,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>-4.8589000000000002</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>-4.8021000000000003</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>-4.8773</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-4.7750000000000004</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>-4.5598000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>-4.5995999999999997</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-4.5590999999999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>-4.6291000000000002</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>-4.4983000000000004</v>
       </c>
     </row>
@@ -4453,31 +5325,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>-4.6828000000000003</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>-4.6100000000000003</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>-4.6958000000000002</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>-4.59</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>-4.3643000000000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>-4.4042000000000003</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>-4.3670999999999998</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>-4.4400000000000004</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>-4.3064999999999998</v>
       </c>
     </row>
@@ -4485,15 +5357,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>-5.5288000000000004</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-5.4043999999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-5.4932999999999996</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-5.3536999999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-5.1185999999999998</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-5.1460999999999997</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-5.1199000000000003</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-5.2108999999999996</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-5.0566000000000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4518,7 +5408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4526,18 +5418,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -4585,31 +5477,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>-2.7806999999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>-2.7787000000000002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>-3.2105999999999999</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>-2.6217000000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>-2.4701</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>-2.1945000000000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>-3.2385000000000002</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-2.8336999999999999</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-3.3193999999999999</v>
       </c>
     </row>
@@ -4617,31 +5509,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>-2.4401999999999999</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>-2.5596999999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>-3.0446</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>-2.3839999999999999</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>-2.2231000000000001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>-1.9436</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-3.0771000000000002</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>-2.6515</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>-3.1840999999999999</v>
       </c>
     </row>
@@ -4649,31 +5541,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-2.4971999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-2.6172</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>-3.0788000000000002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-2.4445999999999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-2.2890999999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>-2.0095000000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>-3.1158000000000001</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>-2.6861999999999999</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-3.2124999999999999</v>
       </c>
     </row>
@@ -4681,47 +5573,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-2.3279999999999998</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>-2.5257000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-3.0164</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-2.3578000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-2.1724000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1.8858999999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-3.0569000000000002</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-2.6128</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-3.1602999999999999</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>-2.7753999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-2.7725</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>-3.2078000000000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-2.6126999999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-2.4624999999999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>-2.1844000000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-3.2334000000000001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-2.8254999999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>-3.3085</v>
       </c>
     </row>
@@ -4729,31 +5637,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>-2.8576999999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>-2.8151000000000002</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>-3.2374000000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-2.6568999999999998</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>-2.5108999999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>-2.2414999999999998</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-3.2639999999999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>-2.8748999999999998</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>-3.3372999999999999</v>
       </c>
     </row>
@@ -4761,31 +5669,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>-2.8658999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>-2.8273000000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>-3.2502</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>-2.6686999999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>-2.5230999999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>-2.2511999999999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>-3.2747000000000002</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>-2.8761999999999999</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>-3.347</v>
       </c>
     </row>
@@ -4793,15 +5701,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>-2.6156000000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-2.6966000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-3.1419999999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-2.5211999999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-2.3942000000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-2.1204000000000001</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-3.1810999999999998</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-2.7646000000000002</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-3.2673999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4826,7 +5752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4834,18 +5762,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -4893,31 +5821,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>2.5867</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>2.5041000000000002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>2.1633</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>2.6425000000000001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>2.5535999999999999</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>2.8689</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>1.7907</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>2.2768999999999999</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>1.641</v>
       </c>
     </row>
@@ -4925,31 +5853,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>2.8668</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>2.6193</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>2.2665000000000002</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>2.7826</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>2.6398000000000001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>2.9342000000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>1.7941</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>2.3418000000000001</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>1.6071</v>
       </c>
     </row>
@@ -4957,31 +5885,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>2.4186000000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>2.2048999999999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>1.8443999999999989</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>2.3551000000000002</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>2.2502</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>2.5699000000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>1.4338</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>1.9591000000000001</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>1.2657</v>
       </c>
     </row>
@@ -4989,47 +5917,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>2.5994999999999999</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>2.2854999999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.9307000000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2.4428999999999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.3233000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.6415999999999999</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.4487000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2.0173000000000001</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.2724</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>2.2185999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>2.1562999999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>1.7978000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>2.2928000000000002</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>2.2244999999999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>2.5392000000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>1.4544999999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>1.9351</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>1.3169999999999999</v>
       </c>
     </row>
@@ -5037,31 +5981,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>2.0011999999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>1.9870000000000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>1.6398999999999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>2.118100000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>2.0489000000000002</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>2.3580999999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>1.2950999999999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>1.7542</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>1.161</v>
       </c>
     </row>
@@ -5069,31 +6013,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>1.8169</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>1.7827</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>1.4456</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>1.9213</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>1.8411999999999999</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>2.153</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>1.0924</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>1.563800000000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>0.9594999999999998</v>
       </c>
     </row>
@@ -5101,15 +6045,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>2.9131999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2.7078000000000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.3513000000000002</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2.8325</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.7244000000000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.0257000000000001</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.938800000000001</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2.446299999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.789200000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5134,7 +6096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5142,18 +6106,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -5201,31 +6165,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>-5.7615999999999996</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-5.6864999999999997</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-5.7672999999999996</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="6">
+        <v>-5.7596999999999996</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-5.6826999999999996</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-5.7645999999999997</v>
+      </c>
+      <c r="F5" s="6">
         <v>-5.6669</v>
       </c>
-      <c r="G5" s="3">
-        <v>-5.4390999999999998</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-5.4874999999999998</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="6">
+        <v>-5.4330999999999996</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-5.4810999999999996</v>
+      </c>
+      <c r="I5" s="6">
         <v>-5.4307999999999996</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-5.5205000000000002</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-5.3924000000000003</v>
       </c>
     </row>
@@ -5233,31 +6197,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>-5.6832000000000003</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-5.5472000000000001</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="6">
+        <v>-5.6817000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-5.5457000000000001</v>
+      </c>
+      <c r="E6" s="6">
         <v>-5.6792999999999996</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>-5.5396000000000001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>-5.2243000000000004</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>-5.2417999999999996</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-5.2262000000000004</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>-5.3635999999999999</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>-5.1841999999999997</v>
       </c>
     </row>
@@ -5265,31 +6229,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-5.3337000000000003</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-5.2392000000000003</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>-5.3365999999999998</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-5.2210999999999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-4.9630000000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>-5.0096999999999996</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>-4.9653999999999998</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>-5.07</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-4.9231999999999996</v>
       </c>
     </row>
@@ -5297,47 +6261,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-5.3696000000000002</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>-5.2495000000000003</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-5.3794000000000004</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-5.2366000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-4.9343000000000004</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-4.9699</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-4.9347000000000003</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-5.1372999999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-4.8962000000000003</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>-5.3936000000000002</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-5.3327</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>-5.4038000000000004</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-5.3087999999999997</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-5.0952999999999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>-5.1432000000000002</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-5.09</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-5.1726999999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>-5.0533999999999999</v>
       </c>
     </row>
@@ -5345,31 +6325,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>-5.2355999999999998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>-5.1832000000000003</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>-5.2503000000000002</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-5.1632999999999996</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>-4.9443000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>-4.9988999999999999</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-4.9377000000000004</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>-5.0159000000000002</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>-4.8983999999999996</v>
       </c>
     </row>
@@ -5377,31 +6357,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>-5.0399000000000003</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>-4.9787999999999997</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>-5.0484999999999998</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>-4.9560000000000004</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>-4.7426000000000004</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>-4.7911999999999999</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>-4.7347999999999999</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>-4.8185000000000002</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>-4.6967999999999996</v>
       </c>
     </row>
@@ -5409,15 +6389,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>-5.8856999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-5.7580999999999998</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-5.8606999999999996</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-5.7337999999999996</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-5.5171000000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-5.5495000000000001</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-5.5109000000000004</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-5.6120000000000001</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-5.53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5442,7 +6440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5450,18 +6450,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -5509,31 +6509,31 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>-2.0707</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-2.0968</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-2.4325999999999999</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" s="6">
+        <v>-2.0605000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-2.0865999999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-2.4302000000000001</v>
+      </c>
+      <c r="F5" s="6">
         <v>-1.9320999999999999</v>
       </c>
-      <c r="G5" s="3">
-        <v>-1.7784</v>
-      </c>
-      <c r="H5" s="3">
-        <v>-1.5787</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="G5" s="6">
+        <v>-1.7726</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-1.573</v>
+      </c>
+      <c r="I5" s="6">
         <v>-2.4630000000000001</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>-2.1368</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <v>-2.5798999999999999</v>
       </c>
     </row>
@@ -5541,31 +6541,31 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>-1.7426999999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-1.8644000000000001</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="6">
+        <v>-1.7402</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1.8615999999999999</v>
+      </c>
+      <c r="E6" s="6">
         <v>-2.2635000000000001</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>-1.6791</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>-1.5249999999999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>-1.3142</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>-2.3003</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>-1.9486000000000001</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>-2.4477000000000002</v>
       </c>
     </row>
@@ -5573,31 +6573,31 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>-1.7566999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>-1.9169</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>-2.2965</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>-1.7408999999999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>-1.5894999999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>-1.3803000000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>-2.3384</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>-1.99</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>-2.4802</v>
       </c>
     </row>
@@ -5605,47 +6605,63 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>-1.5945</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="D8" s="6">
+        <v>-1.8262</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-2.2397999999999998</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-1.6660999999999999</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-1.4806999999999999</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-1.2558</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-2.2787000000000002</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-1.9692000000000001</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-2.4329999999999998</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>-2.0392999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>-2.0718000000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>-2.4205999999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>-1.9100999999999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>-1.7548999999999999</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>-1.5516000000000001</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>-2.4508000000000001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>-2.1219999999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>-2.5674999999999999</v>
       </c>
     </row>
@@ -5653,31 +6669,31 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>-2.1044</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>-2.1013999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>-2.4388999999999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>-1.9369000000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>-1.7878000000000001</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>-1.5899000000000001</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>-2.4681000000000002</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>-2.1608999999999998</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>-2.5832000000000002</v>
       </c>
     </row>
@@ -5685,31 +6701,31 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>-2.1305999999999998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>-2.1252</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>-2.4617</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>-1.9633</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>-1.8119000000000001</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>-1.6147</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>-2.4904000000000002</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>-2.1701000000000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>-2.6</v>
       </c>
     </row>
@@ -5717,15 +6733,33 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="C12" s="6">
+        <v>-1.7854000000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-1.9522999999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-2.3380000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-1.7898000000000001</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-1.6822999999999999</v>
+      </c>
+      <c r="H12" s="6">
+        <v>-1.484</v>
+      </c>
+      <c r="I12" s="6">
+        <v>-2.3946000000000001</v>
+      </c>
+      <c r="J12" s="6">
+        <v>-2.0501</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-2.5398999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/results.xlsx
+++ b/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="846" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="846" firstSheet="10" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,21 @@
     <sheet name="pbe0 S1_energy" sheetId="14" r:id="rId14"/>
     <sheet name="pbe0 T1_energy" sheetId="15" r:id="rId15"/>
     <sheet name="pbe0 delta_E_S1_T1" sheetId="16" r:id="rId16"/>
-    <sheet name="pbe0 T1_S1_SOCME" sheetId="17" r:id="rId17"/>
-    <sheet name="pbe0 T1_S2_SOCME" sheetId="18" r:id="rId18"/>
+    <sheet name="pbe0 delta_E_S2_T1" sheetId="17" r:id="rId17"/>
+    <sheet name="pbe0 T1_S1_SOCME" sheetId="18" r:id="rId18"/>
+    <sheet name="pbe0 T1_S2_SOCME" sheetId="19" r:id="rId19"/>
+    <sheet name="pbe0 T1_S1_kRISC" sheetId="23" r:id="rId20"/>
+    <sheet name="pbe0 T1_S2_kRISC" sheetId="24" r:id="rId21"/>
+    <sheet name="pbe0 distance" sheetId="20" r:id="rId22"/>
+    <sheet name="pbe0 integral_norm" sheetId="21" r:id="rId23"/>
+    <sheet name="pbe0 integral_square" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -98,6 +104,9 @@
     <t>HOMO energies, eV (PBE0/def2-TZVP, CPCM(toluene))</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
     <t>LUMO energies, eV (PBE0/def2-TZVP, CPCM(toluene))</t>
   </si>
   <si>
@@ -113,10 +122,31 @@
     <t>ΔE(S1-T1), eV (PBE0/def2-TZVP, CPCM(toluene))</t>
   </si>
   <si>
+    <t>ΔE(S2-T1), eV (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
     <t>Spin-Orbit Coupling Matrix Element for S1 and T1, cm-1 (PBE0/def2-TZVP, CPCM(toluene))</t>
   </si>
   <si>
     <t>Spin-Orbit Coupling between T1 and S2, cm-1 (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>Distance between centroids of HOMO and LUMO (PBE0/def2-TZVP, CPCM(toluene)), Angstrom</t>
+  </si>
+  <si>
+    <t>Overlap integral for module of HOMO and LUMO (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>Overlap integral for squared HOMO and LUMO (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>(SOCME(T1-S1))^2*exp(-ΔE(S1-T1)^2) (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>(SOCME(T1-S2))^2*exp(-ΔE(S2-T1)^2) (PBE0/def2-TZVP, CPCM(toluene))</t>
+  </si>
+  <si>
+    <t>Подсвечено зеленым если соответствующее значение dE(ST) &lt; 0.3</t>
   </si>
 </sst>
 </file>
@@ -126,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +180,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +315,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,13 +339,64 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -618,18 +707,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -809,7 +898,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,18 +907,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -1150,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,21 +1250,21 @@
     <col min="2" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1187,7 +1276,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1216,8 +1305,11 @@
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1252,8 +1344,12 @@
         <f t="shared" ref="M5:M12" si="0">MAX(C5:K5)-MIN(C5:K5)</f>
         <v>0.21480000000000032</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:O12" si="1">AVERAGE(C5:K5)</f>
+        <v>-5.9092888888888888</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1288,8 +1384,12 @@
         <f t="shared" si="0"/>
         <v>0.31119999999999948</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.7721111111111112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1324,8 +1424,12 @@
         <f t="shared" si="0"/>
         <v>0.24500000000000011</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.4216999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1360,8 +1464,12 @@
         <f t="shared" si="0"/>
         <v>0.30269999999999975</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.4427555555555562</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1396,8 +1504,12 @@
         <f t="shared" si="0"/>
         <v>0.18880000000000052</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.6182888888888893</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1432,8 +1544,12 @@
         <f t="shared" si="0"/>
         <v>0.17740000000000045</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.4785333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1464,12 +1580,16 @@
       <c r="K11" s="6">
         <v>-5.1703999999999999</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="7">
         <f t="shared" si="0"/>
         <v>0.19329999999999981</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="7">
+        <f t="shared" si="1"/>
+        <v>-5.263066666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1500,9 +1620,13 @@
       <c r="K12" s="6">
         <v>-5.9786000000000001</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="7">
         <f t="shared" si="0"/>
         <v>0.21170000000000044</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="1"/>
+        <v>-6.031477777777777</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1634,7 @@
     <mergeCell ref="B2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:K12">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1520,12 +1644,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M12">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1538,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,18 +1682,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -1860,39 +1994,39 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
-        <f>-MIN(C5:C12)+MAX(C5:C12)</f>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:K15" si="0">-MIN(C5:C12)+MAX(C5:C12)</f>
         <v>0.3044</v>
       </c>
-      <c r="D15" s="16">
-        <f t="shared" ref="D15:K15" si="0">-MIN(D5:D12)+MAX(D5:D12)</f>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
         <v>0.15339999999999998</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>0.10899999999999999</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>0.17320000000000002</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>0.1944999999999999</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>0.21310000000000007</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>0.10579999999999989</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="7">
         <f t="shared" si="0"/>
         <v>0.12250000000000005</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="7">
         <f t="shared" si="0"/>
         <v>8.2599999999999785E-2</v>
       </c>
@@ -1928,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M5" sqref="M5:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,21 +2073,21 @@
     <col min="2" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1965,7 +2099,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1995,7 +2129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2026,8 +2160,12 @@
       <c r="K5" s="6">
         <v>3.2292000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="7">
+        <f t="shared" ref="M5:M12" si="0">AVERAGE(C5:K5)</f>
+        <v>3.8803666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2058,8 +2196,12 @@
       <c r="K6" s="6">
         <v>3.1248999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8503222222222218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -2090,8 +2232,12 @@
       <c r="K7" s="6">
         <v>2.7778999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4810888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -2122,8 +2268,12 @@
       <c r="K8" s="6">
         <v>2.7955999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5544999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -2154,8 +2304,12 @@
       <c r="K9" s="6">
         <v>2.9504999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5996111111111113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -2186,8 +2340,12 @@
       <c r="K10" s="6">
         <v>2.8026</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4352555555555551</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -2218,8 +2376,12 @@
       <c r="K11" s="6">
         <v>2.5764</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.212822222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -2249,6 +2411,10 @@
       </c>
       <c r="K12" s="6">
         <v>3.4102000000000001</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0403222222222226</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M11">
+  <conditionalFormatting sqref="M5:M12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2304,7 +2470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2312,18 +2480,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -2656,18 +2824,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -2988,10 +3156,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="S5" sqref="S5:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,19 +3167,711 @@
     <col min="2" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.39257886780000018</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.45086568659999982</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.2277594179999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.53119373939999992</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.51383286619999957</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.67718290040000051</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.5401652400000019E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.24370529839999969</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.31801963179999992</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:U12" si="0">IF(C5&lt;0.3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W12" si="1">AVERAGE(C5:K5)</f>
+        <v>0.37450445122222215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.61293678500000048</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.55611938179999987</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.38272834100000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.65046130559999993</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.58942613539999966</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.68159114720000025</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.074888200000014E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.32395171699999992</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.16653376799999989</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0.44383305144444446</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.34392488460000031</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2118951718000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.5484044600000448E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.39032032160000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.25390957340000009</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.44330091740000022</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4.571515199999876E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>9.3307890599999777E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7.0749640000000724E-4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0.19971353506666678</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.43059319359999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.25943348760000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.10881838859999959</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.43851171099999992</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.30721670599999967</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.51356075220000008</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9.5239899999999267E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.15317297060000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.496626999999862E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>0.24692531406666657</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.7143561000000158E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.17469718800000009</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.4422800000031302E-4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.15001644820000021</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.26623633760000009</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.32776131300000028</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.4422799999898068E-5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.6259380000002182E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.2939589200000412E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>0.11109507573333349</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.4369135199999565E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.14582589260000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.8775866000000361E-3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.18824846519999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.2121400744000006</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.28890343380000028</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.7211399999949041E-5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5.4422800000031302E-4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.7211399999949041E-5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>0.10355147095555564</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.9348063399999873E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.5565678799999851E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.1700902000000291E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1069952248000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.2518760000000366E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.17954081719999951</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.4422800000342157E-5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.9932540000032759E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.721140000039313E-5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>5.5057732666666775E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.6111136211999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.58773902859999971</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.35165292220000038</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.69032600659999988</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.64069241300000046</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.80600166799999995</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.8953308599999801E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.38286439799999972</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.46240332020000002</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>0.50908296515555551</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:U12 W5:W12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5:W12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:U12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3060,31 +3920,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0.39257886780000018</v>
+        <v>0.41437519920000021</v>
       </c>
       <c r="D5" s="3">
-        <v>0.45086568659999982</v>
+        <v>0.49619987899999968</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2277594179999998</v>
+        <v>0.23037171239999979</v>
       </c>
       <c r="F5" s="3">
-        <v>0.53119373939999992</v>
+        <v>0.54371098340000046</v>
       </c>
       <c r="G5" s="3">
-        <v>0.51383286619999957</v>
+        <v>0.57595649239999958</v>
       </c>
       <c r="H5" s="3">
-        <v>0.67718290040000051</v>
+        <v>0.68439392140000033</v>
       </c>
       <c r="I5" s="3">
-        <v>1.5401652400000019E-2</v>
+        <v>1.7524141599999599E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>0.24370529839999969</v>
+        <v>0.30865891019999969</v>
       </c>
       <c r="K5" s="3">
-        <v>0.31801963179999992</v>
+        <v>0.31845501419999961</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3092,31 +3952,31 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.61293678500000048</v>
+        <v>0.62485537820000037</v>
       </c>
       <c r="D6" s="3">
-        <v>0.55611938179999987</v>
+        <v>0.62880103120000008</v>
       </c>
       <c r="E6" s="3">
-        <v>0.38272834100000003</v>
+        <v>0.38368074000000002</v>
       </c>
       <c r="F6" s="3">
-        <v>0.65046130559999993</v>
+        <v>0.65269264039999975</v>
       </c>
       <c r="G6" s="3">
-        <v>0.58942613539999966</v>
+        <v>0.66945486279999944</v>
       </c>
       <c r="H6" s="3">
-        <v>0.68159114720000025</v>
+        <v>0.68692458160000003</v>
       </c>
       <c r="I6" s="3">
-        <v>3.074888200000014E-2</v>
+        <v>3.2789737000000319E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>0.32395171699999992</v>
+        <v>0.43018502259999991</v>
       </c>
       <c r="K6" s="3">
-        <v>0.16653376799999989</v>
+        <v>0.1670507846000002</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,31 +3984,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>0.34392488460000031</v>
+        <v>0.40378996460000011</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2118951718000002</v>
+        <v>0.2777467598000003</v>
       </c>
       <c r="E7" s="3">
-        <v>5.5484044600000448E-2</v>
+        <v>5.6953460200000361E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>0.39032032160000002</v>
+        <v>0.41793989259999981</v>
       </c>
       <c r="G7" s="3">
-        <v>0.25390957340000009</v>
+        <v>0.34340786800000028</v>
       </c>
       <c r="H7" s="3">
-        <v>0.44330091740000022</v>
+        <v>0.45872978119999969</v>
       </c>
       <c r="I7" s="3">
-        <v>4.571515199999876E-3</v>
+        <v>6.1225650000000797E-3</v>
       </c>
       <c r="J7" s="3">
-        <v>9.3307890599999777E-2</v>
+        <v>0.18155446079999971</v>
       </c>
       <c r="K7" s="3">
-        <v>7.0749640000000724E-4</v>
+        <v>9.5239899999999267E-4</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,31 +4016,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>0.43059319359999998</v>
+        <v>0.55813302540000009</v>
       </c>
       <c r="D8" s="3">
-        <v>0.25943348760000001</v>
+        <v>0.34055067100000042</v>
       </c>
       <c r="E8" s="3">
-        <v>0.10881838859999959</v>
+        <v>0.11355317219999959</v>
       </c>
       <c r="F8" s="3">
-        <v>0.43851171099999992</v>
+        <v>0.52664943560000044</v>
       </c>
       <c r="G8" s="3">
-        <v>0.30721670599999967</v>
+        <v>0.42637542660000038</v>
       </c>
       <c r="H8" s="3">
-        <v>0.51356075220000008</v>
+        <v>0.58806556539999955</v>
       </c>
       <c r="I8" s="3">
-        <v>9.5239899999999267E-3</v>
+        <v>1.687106799999993E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>0.15317297060000001</v>
+        <v>0.25249458060000007</v>
       </c>
       <c r="K8" s="3">
-        <v>1.496626999999862E-3</v>
+        <v>1.2245129999999721E-2</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3188,31 +4048,31 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>3.7143561000000158E-2</v>
+        <v>5.1320700400000252E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>0.17469718800000009</v>
+        <v>0.17486045640000031</v>
       </c>
       <c r="E9" s="3">
-        <v>5.4422800000031302E-4</v>
+        <v>4.1905556000001454E-3</v>
       </c>
       <c r="F9" s="3">
-        <v>0.15001644820000021</v>
+        <v>0.15238384000000019</v>
       </c>
       <c r="G9" s="3">
-        <v>0.26623633760000009</v>
+        <v>0.26800507860000028</v>
       </c>
       <c r="H9" s="3">
-        <v>0.32776131300000028</v>
+        <v>0.3292035172000003</v>
       </c>
       <c r="I9" s="3">
-        <v>5.4422799999898068E-5</v>
+        <v>1.5510497999997601E-3</v>
       </c>
       <c r="J9" s="3">
-        <v>4.6259380000002182E-4</v>
+        <v>5.115743200000189E-3</v>
       </c>
       <c r="K9" s="3">
-        <v>4.2939589200000412E-2</v>
+        <v>4.3402182999999983E-2</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,31 +4080,31 @@
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>9.4369135199999565E-2</v>
+        <v>0.1201383309999997</v>
       </c>
       <c r="D10" s="3">
-        <v>0.14582589260000001</v>
+        <v>0.14658781179999991</v>
       </c>
       <c r="E10" s="3">
-        <v>1.8775866000000361E-3</v>
+        <v>6.0409307999997894E-3</v>
       </c>
       <c r="F10" s="3">
-        <v>0.18824846519999999</v>
+        <v>0.19706495880000041</v>
       </c>
       <c r="G10" s="3">
-        <v>0.2121400744000006</v>
+        <v>0.21619457300000011</v>
       </c>
       <c r="H10" s="3">
-        <v>0.28890343380000028</v>
+        <v>0.28925718200000011</v>
       </c>
       <c r="I10" s="3">
-        <v>2.7211399999949041E-5</v>
+        <v>5.2245888000004292E-3</v>
       </c>
       <c r="J10" s="3">
-        <v>5.4422800000031302E-4</v>
+        <v>4.7347836000004584E-3</v>
       </c>
       <c r="K10" s="3">
-        <v>2.7211399999949041E-5</v>
+        <v>3.8912301999993741E-3</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3252,31 +4112,31 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>5.9348063399999873E-2</v>
+        <v>6.7266580799999698E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>5.5565678799999851E-2</v>
+        <v>6.3647464600000259E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>1.1700902000000291E-3</v>
+        <v>1.697991359999973E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>0.1069952248000003</v>
+        <v>0.1146144168000003</v>
       </c>
       <c r="G11" s="3">
-        <v>9.2518760000000366E-2</v>
+        <v>9.6382778800000235E-2</v>
       </c>
       <c r="H11" s="3">
-        <v>0.17954081719999951</v>
+        <v>0.1853368453999997</v>
       </c>
       <c r="I11" s="3">
-        <v>5.4422800000342157E-5</v>
+        <v>2.1333737600000461E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>2.9932540000032759E-4</v>
+        <v>1.175532480000019E-2</v>
       </c>
       <c r="K11" s="3">
-        <v>2.721140000039313E-5</v>
+        <v>6.0409308000002326E-3</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3284,31 +4144,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>0.6111136211999999</v>
+        <v>0.67544137079999977</v>
       </c>
       <c r="D12" s="3">
-        <v>0.58773902859999971</v>
+        <v>0.63870598080000018</v>
       </c>
       <c r="E12" s="3">
-        <v>0.35165292220000038</v>
+        <v>0.37067369080000029</v>
       </c>
       <c r="F12" s="3">
-        <v>0.69032600659999988</v>
+        <v>0.71489790080000049</v>
       </c>
       <c r="G12" s="3">
-        <v>0.64069241300000046</v>
+        <v>0.69658462860000059</v>
       </c>
       <c r="H12" s="3">
-        <v>0.80600166799999995</v>
+        <v>0.81590661760000005</v>
       </c>
       <c r="I12" s="3">
-        <v>4.8953308599999801E-2</v>
+        <v>5.5075873599999881E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>0.38286439799999972</v>
+        <v>0.45995429419999972</v>
       </c>
       <c r="K12" s="3">
-        <v>0.46240332020000002</v>
+        <v>0.48077101519999982</v>
       </c>
     </row>
   </sheetData>
@@ -3330,12 +4190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,18 +4204,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -3684,7 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
@@ -3698,18 +4558,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -4042,18 +4902,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -4372,6 +5232,2280 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3480200700264062E-11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6.7736180652928524E-11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.9404451716791198E-10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.5155127585623731E-10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.620589429697503E-10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.3613437932278792E-10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.137205549168761E-10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.3465593781457342E-10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2.784100890315066E-9</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:U12" si="0">-LOG10(C5)</f>
+        <v>10.361708459921161</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>10.169179294968046</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>9.4044547109961805</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>9.5993734756114648</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>9.5816010150640647</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>9.6268407784306955</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>9.9441610297699423</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>9.6295684517754729</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>8.5553150308024257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.3284597181746698E-11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.105662618510534E-10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.1822013805561941E-10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.01690805499422E-10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.4009286433765221E-10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.0173288636100667E-11</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6.6648346092628612E-10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.3630988527602438E-10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>9.888489488884315E-9</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>10.363666619790648</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>9.956377373277137</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>9.3785950589505216</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>9.9927183125775603</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>9.8535839850404532</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>10.095970301668689</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>9.1762106233207472</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>9.4732603671256435</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>8.0048700437661999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.2837128641075049E-10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.74822473187555E-10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.7583273677333189E-11</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.441840283986711E-9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.4411569271886451E-11</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.9252603388558203E-10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.3833870411262759E-11</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.8095103109416918E-11</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.1485122667543083E-12</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>9.8915321067025275</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>9.5609477563931229</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>10.55935419154561</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>8.6122827458176996</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>10.841288726402253</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>9.3075708086708762</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>10.859056296890467</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>10.419130846614131</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>11.211229956176098</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.679241916497334E-9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0921778211540311E-10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.1065181207289523E-10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.5764140929295692E-10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.251886611082736E-10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8.230006979237727E-10</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.3794629525787003E-11</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.711692398194459E-10</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.6131131682711791E-11</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>8.7748867336227203</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>9.9617066469253785</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>9.2142063498199889</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>9.4465522024424864</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>9.647453481236699</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>9.0845997964957323</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>10.269261079049885</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>9.7665742780756339</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>10.582841781512082</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.7630172936090089E-11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.1117154071655355E-10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.0742567616538439E-12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.1912605744349888E-9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.5010357394283357E-10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8.2005230532327708E-10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.537128507165188E-12</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7.6714863819546458E-12</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>10.558616396844089</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>9.1480256310550789</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>11.512259863084601</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8.6593059751045676</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>9.1870174464210876</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>9.0861584461665093</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>11.813289823053445</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>11.115120481560789</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.4181519043044412E-11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.7715396936393025E-10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.1519727841093129E-11</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.5221382421992372E-11</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8.5524101722619274E-10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.4038685636148099E-11</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.0742567616538439E-12</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>10.35475935635343</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>9.1693125714294386</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>10.66716322547121</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>10.598231112775276</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>9.0679114786039747</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>10.619089281951046</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>11.512259863084601</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.1181387674568611E-11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.2022339461442666E-10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7.6856336580066296E-12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.033349869253619E-10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.292375399438991E-9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.5897633278459032E-10</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>10.090543529339785</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>9.1425327757904249</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>11.114320320378823</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>9.9857526111420292</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>8.8886113174367996</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>9.5867399232187687</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.0518787555824178E-9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.290654859324672E-8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.404513925648219E-9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.2686011462478761E-8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.3806667616096451E-8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.814331790690353E-8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.3571029227054929E-9</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.5082235200976451E-8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>8.0432612717891345</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>7.8891898791361958</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>8.8524739504444625</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>7.6442418528193672</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>7.859911130297518</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>7.550624703499806</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>8.8673872141913765</v>
+      </c>
+      <c r="T12">
+        <f>-LOG10(J12)</f>
+        <v>7.8215342908591809</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M5:U12">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
+      <formula>10</formula>
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="2" priority="7">
+      <formula>LEN(TRIM(M5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{9A9DF85B-55A5-4545-801B-D1A8F95AD5CD}">
+            <xm:f>'pbe0 delta_E_S1_T1'!C5&lt;0.3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFFCC"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C5:K12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.1900914221931506E-9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.2362848545539038E-9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.0086161016463938E-10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.3282536328672601E-9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.5246371360301038E-9</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.9812771708375489E-9</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.154605613666505E-9</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:U12" si="0">-LOG10(C5)</f>
+        <v>8.284824992092906</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>8.650472877493339</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>9.3970055334027105</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>8.477783585278706</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>8.452885587305639</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>8.7030547645699574</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>8.3814701964136127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.4342117070362021E-10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.5793424682749907E-10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.7131739510956916E-10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.8148817494376023E-11</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.8361755474009481E-10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.515091374544085E-10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.535477054257021E-12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.395197737040603E-9</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.494826758468606E-12</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>9.6136416532221141</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>9.2534169801352011</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>9.1730720992738615</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>10.418518919403114</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>9.7360858004642949</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>9.8195611742484008</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>11.813756669148635</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>8.6206586273180079</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>11.82540913657083</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.7165077418983508E-9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.2647553194988219E-9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.251767313276311E-9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.635411462407012E-9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6.8060963811114068E-9</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.5668374421711841E-9</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6.5886854093101561E-9</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>8.429864958176454</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>8.370105880426058</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>8.9024763931318756</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>8.7863729626541893</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>8.1671019051537463</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>8.5906016343295235</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>8.1812012282640172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.0881576180199481E-9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.1214859842462679E-9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.4506099612270794E-10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.0698407374227369E-9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.1129581169233448E-9</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.0971140907863934E-9</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5.7384738911140242E-9</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>8.2934394438266121</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>8.3849461727036605</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>9.127808171285082</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>8.3904225854214118</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>8.147949748541377</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>8.2926756453117392</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>8.2412035899698317</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.8463686825188901E-10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.9286009631696399E-10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.6808727730745338E-10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9.6271790097802042E-10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.5370886086912611E-12</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>9.4149490900638622</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>9.5333397991273578</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>9.1751667986366279</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>9.0165009527473181</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>11.813301095963855</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.504451376074184E-12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>11.822621844111286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.212287937838473E-8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.7450415659962609E-9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.7246326398423859E-10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.9567658732446427E-8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.501884418927614E-8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4.3559348943143008E-8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.0649464961700861E-12</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.0879066518968111E-8</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9.2042064952592878E-9</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>7.9163942160092251</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>8.0582381219383166</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>9.4289165552262642</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>7.4026596467180825</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>7.8233634882062741</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>7.3609186200207954</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>11.513577102424819</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>7.9634083677861458</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M5:U12">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(M5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>10</formula>
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{2A0AC6FE-FA07-46EA-8716-3B4150DDCEF8}">
+            <xm:f>'pbe0 delta_E_S2_T1'!C5&lt;0.3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFFCC"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C5:K12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.534643</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.0190919999999997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.4928790000000003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.5373049999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.2642009999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.98827</v>
+      </c>
+      <c r="I5" s="5">
+        <v>9.2928990000000002</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5.8396610000000004</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10.118312</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.9762299999999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.1225579999999997</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7.9695320000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.542446</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.3188630000000003</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.89479200000000003</v>
+      </c>
+      <c r="I6" s="5">
+        <v>8.6520700000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.0431929999999996</v>
+      </c>
+      <c r="K6" s="5">
+        <v>9.5064270000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.130674</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5.6744490000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.9721080000000004</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5.0786360000000004</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4.9314220000000004</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.8061809999999996</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9.0302799999999994</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.4934229999999999</v>
+      </c>
+      <c r="K7" s="5">
+        <v>9.8412740000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.7997749999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5.1816519999999997</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8.426202</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4.761933</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4.4591240000000001</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4.3377559999999997</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8.6503460000000008</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5.2752270000000001</v>
+      </c>
+      <c r="K8" s="5">
+        <v>9.4671350000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7.4539850000000003</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8.7391900000000007</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9.6734609999999996</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.0035779999999992</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8.1448730000000005</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8.0247589999999995</v>
+      </c>
+      <c r="I9" s="5">
+        <v>9.0212380000000003</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8.4405789999999996</v>
+      </c>
+      <c r="K9" s="5">
+        <v>12.89071</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7.9335019999999998</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9.1400710000000007</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10.530792999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8.2786519999999992</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8.5192720000000008</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8.0998400000000004</v>
+      </c>
+      <c r="I10" s="5">
+        <v>10.045776</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9.193899</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10.653511999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7.6228069999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8.8476300000000005</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10.621302</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8.1265800000000006</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8.2913340000000009</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8.2359019999999994</v>
+      </c>
+      <c r="I11" s="5">
+        <v>9.957929</v>
+      </c>
+      <c r="J11" s="5">
+        <v>8.6581080000000004</v>
+      </c>
+      <c r="K11" s="5">
+        <v>13.279529</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.6444869999999998</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.5297010000000002</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8.4977359999999997</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.2829949999999997</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.8881290000000002</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.3187280000000001</v>
+      </c>
+      <c r="I12" s="5">
+        <v>9.0119450000000008</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5.5690860000000004</v>
+      </c>
+      <c r="K12" s="5">
+        <v>10.473739999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.23760136030000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.17276089980000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5.6535188200000003E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.21636715949999999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.21525722159999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.29774262979999999</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.1162439199999999E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.1518159396</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.4218713500000001E-2</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" ref="M5:M12" si="0">AVERAGE(C5:K5)</f>
+        <v>0.15482906127777779</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.63834771170000004</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.29478291919999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.10426153959999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.4024552871</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.36297076230000003</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.71703173050000002</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.4233290400000002E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.26271482979999999</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2.5678724199999999E-2</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.31805297720000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.29797221010000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.17979402880000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>7.1358676900000001E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.21900476739999999</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.22078583509999999</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.2898366772</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.9735901299999999E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.17012139840000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.43411562E-2</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16588340571111113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.36642078459999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.24116531869999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.9802534899999999E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.2867490009</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.2974748982</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.35510318689999998</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4.2109527200000003E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.21190477020000001</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.07643117E-2</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.21127714814444445</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.6876495899999997E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.72007705E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>7.9629512000000003E-3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.8248351999999999E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.2421045899999999E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4.58998672E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4.7214672000000001E-3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.4164344000000001E-2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7.6479070000000002E-4</v>
+      </c>
+      <c r="M9" s="17">
+        <f t="shared" si="0"/>
+        <v>2.3140009399999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.7711225599999999E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.6980774399999999E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7.5374732999999999E-3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.6517446499999997E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.2558970500000001E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6.7866556800000005E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3.6547045000000001E-3</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1.1860087E-2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2.7870855000000001E-3</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="0"/>
+        <v>2.638603601111111E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.8578024499999999E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.6254745000000001E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>7.0293643000000003E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3.8432962799999998E-2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2.11948806E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4.3589417999999998E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>4.0869762999999996E-3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.2620908599999999E-2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2.9676149999999999E-4</v>
+      </c>
+      <c r="M11" s="17">
+        <f t="shared" si="0"/>
+        <v>2.2453782399999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.42645717649999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.30074245440000003</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9.9601925399999999E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.35398097109999999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.35422716710000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.49911177620000002</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5.25691509E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.25245390359999997</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2.1508712199999998E-2</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.26229480415555556</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:K14" si="1">AVERAGE(C5:C12)</f>
+        <v>0.26749562365000001</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.15496023885000001</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="1"/>
+        <v>5.4261206724999997E-2</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.20021949341249998</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.18961134766249998</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.28952273032500003</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" si="1"/>
+        <v>2.7784182124999997E-2</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="1"/>
+        <v>0.13595702264999998</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="1"/>
+        <v>1.2545031937499999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:K12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:K14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.2602889999999999E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6.3695399999999993E-5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7.8815999999999992E-6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.7062699999999995E-5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.110645E-4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.890971E-4</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6.8853E-6</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5.8160800000000001E-5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.0640000000000001E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.115496E-4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.056812E-4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.9183000000000002E-5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.1302430000000001E-4</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.4782770000000001E-4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.6165320000000005E-4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.0811599999999999E-5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.857966E-4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.5885E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.9982809999999999E-4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.0969099999999998E-5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.02932E-5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.024563E-4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.170149E-4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.747614E-4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5.8528000000000001E-6</v>
+      </c>
+      <c r="J7" s="3">
+        <v>7.1956299999999994E-5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.043E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.4522300000000003E-4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.3694010000000001E-4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.1067300000000001E-5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.961551E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.29941E-4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.999314E-4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.2481599999999999E-5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.1548010000000001E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.3740000000000001E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.5835000000000001E-6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.9260000000000005E-7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.2809999999999999E-7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.7184999999999999E-6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.0954999999999999E-6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.9405000000000004E-6</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.8899999999999998E-8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.6839999999999999E-7</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.9000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.4013000000000004E-6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.1490000000000004E-7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.0700000000000001E-7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.9342000000000001E-6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.794000000000001E-7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.0784E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.9500000000000003E-8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.0470000000000002E-7</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.18E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9.6647999999999994E-6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.1610000000000002E-7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.038E-7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3.6921000000000002E-6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9.9260000000000003E-7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4.7454999999999997E-6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.1E-8</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4.0499999999999999E-7</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.6968630000000002E-4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.0533300000000001E-4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.6794700000000002E-5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.0858710000000001E-4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3.144981E-4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.4324470000000004E-4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.0593200000000001E-5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.68918E-4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2.8044000000000002E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
@@ -4386,18 +7520,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -4730,18 +7864,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -5074,18 +8208,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -5418,18 +8552,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -5762,18 +8896,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -6097,7 +9231,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6106,18 +9240,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -6441,7 +9575,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6450,18 +9584,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
